--- a/data/unchecked/manual_collect/china/liaoning/liaoningCaseStatistics_20200416.xlsx
+++ b/data/unchecked/manual_collect/china/liaoning/liaoningCaseStatistics_20200416.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18127\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\liaoning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E65DB-570D-40FB-B258-4F5E5F1EDDFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D175FA-BFA3-4D83-A88B-5E30AB55C247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10841,50 +10841,50 @@
       <selection activeCell="D2" sqref="D2:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.90625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="19.7265625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="19.81640625" style="12" customWidth="1"/>
-    <col min="16" max="19" width="12.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.08984375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="20.7265625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="19.54296875" style="12" customWidth="1"/>
-    <col min="23" max="24" width="26.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.08984375" style="12" customWidth="1"/>
-    <col min="26" max="26" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.53515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="23.69140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.07421875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.4609375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.921875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="19.69140625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="19.84375" style="12" customWidth="1"/>
+    <col min="16" max="19" width="12.4609375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.07421875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="20.69140625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="19.53515625" style="12" customWidth="1"/>
+    <col min="23" max="24" width="26.61328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.07421875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="31.921875" style="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="64" style="12" customWidth="1"/>
-    <col min="29" max="29" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.07421875" style="12" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="31.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="12" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="10.90625" style="12"/>
+    <col min="46" max="46" width="5.07421875" style="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="10.921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="16" customFormat="1" ht="16.2">
+    <row r="1" spans="1:46" s="16" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>3251</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="17" customFormat="1">
+    <row r="2" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="17" customFormat="1">
+    <row r="3" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="17" customFormat="1">
+    <row r="4" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="17" customFormat="1">
+    <row r="5" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="17" customFormat="1">
+    <row r="6" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="7" spans="1:46" s="17" customFormat="1">
+    <row r="7" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="17" customFormat="1">
+    <row r="8" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="17" customFormat="1">
+    <row r="9" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="10" spans="1:46" s="17" customFormat="1">
+    <row r="10" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="17" customFormat="1">
+    <row r="11" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="17" customFormat="1">
+    <row r="12" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="17" customFormat="1">
+    <row r="13" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="14" spans="1:46" s="17" customFormat="1">
+    <row r="14" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="15" spans="1:46" s="17" customFormat="1">
+    <row r="15" spans="1:46" s="17" customFormat="1" ht="15.5">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="16" spans="1:46" s="17" customFormat="1" ht="16.2" customHeight="1">
+    <row r="16" spans="1:46" s="17" customFormat="1" ht="16.25" customHeight="1">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="17" customFormat="1" ht="16.2" customHeight="1">
+    <row r="17" spans="1:35" s="17" customFormat="1" ht="16.25" customHeight="1">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -12621,10 +12621,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
